--- a/ray_of_hope_campaigns_unique.xlsx
+++ b/ray_of_hope_campaigns_unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,35 +557,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Without your support, Mr Lim cannot have his bypass and cataract surgeries</t>
+          <t>Help me get back on my feet – I know my children need me</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5545.7</v>
+        <v>4669</v>
       </c>
       <c r="D4" t="n">
-        <v>117113.51</v>
+        <v>6300</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Medical Treatment</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/limhongmun/</t>
+          <t>https://rayofhope.sg/campaign/madam-qaseh/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>chronic-illness, disability, other-marginalised-communities, seniors</t>
+          <t>children-12-years-and-below, chronic-illness, disability, families-in-need</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.74</v>
+        <v>74.11</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -594,17 +594,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>At only 22, Azhar shoulders his family’s responsibilities</t>
+          <t>Family with two young children needs help with their living expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="D5" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -613,12 +613,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/azhar/</t>
+          <t>https://rayofhope.sg/campaign/hafsa/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>chronic-illness, families-in-need, seniors, youth-from-13-to-21-years</t>
+          <t>children-12-years-and-below, chronic-illness, families-in-need, seniors</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -631,17 +631,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family with two young children needs help with their living expenses</t>
+          <t>I want to do better. Help me give my children stability, please.</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1750</v>
+        <v>2833.35</v>
       </c>
       <c r="D6" t="n">
-        <v>1750</v>
+        <v>2552.9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hafsa/</t>
+          <t>https://rayofhope.sg/campaign/i-want-to-do-better-help-me-give-my-children-stability-please/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, families-in-need, seniors</t>
+          <t>children-12-years-and-below, chronic-illness, families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>110.99</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
@@ -668,35 +668,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Help me get back on my feet – I know my children need me</t>
+          <t>Without your support, Mr Lim cannot have his bypass and cataract surgeries</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4669</v>
+        <v>5545.7</v>
       </c>
       <c r="D7" t="n">
-        <v>6300</v>
+        <v>117113.51</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Other Marginalised Communities, Medical Treatment</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/madam-qaseh/</t>
+          <t>https://rayofhope.sg/campaign/limhongmun/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, disability, families-in-need</t>
+          <t>chronic-illness, disability, other-marginalised-communities, seniors</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>74.11</v>
+        <v>4.74</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -705,17 +705,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I want to do better. Help me give my children stability, please.</t>
+          <t>At only 22, Azhar shoulders his family’s responsibilities</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2833.35</v>
+        <v>2250</v>
       </c>
       <c r="D8" t="n">
-        <v>2552.9</v>
+        <v>2250</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -724,16 +724,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/i-want-to-do-better-help-me-give-my-children-stability-please/</t>
+          <t>https://rayofhope.sg/campaign/azhar/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, families-in-need, youth-from-13-to-21-years</t>
+          <t>chronic-illness, families-in-need, seniors, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>110.99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D9" t="n">
         <v>3600</v>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.28</v>
+        <v>15.69</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -779,35 +779,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Give Mydin and his Siblings A Chance at Education</t>
+          <t>Your donations will allow 68-year-old Mdm Li to recover with peace of mind</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31037.96</v>
+        <v>3155</v>
       </c>
       <c r="D10" t="n">
-        <v>31037.96</v>
+        <v>3153</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Education (Basic)</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mydinandsiblings/</t>
+          <t>https://rayofhope.sg/campaign/mdm_li/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, other-marginalised-communities, youth-from-13-to-21-years</t>
+          <t>chronic-illness, mental-health, seniors</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>100.06</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -816,31 +816,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Help Natahsah with her autistic son’s milk &amp; diaper expenses for 6 months.</t>
+          <t>Wheels of Change: Help Fazali Work Again</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
-        <v>2319.3</v>
+        <v>2287.6</v>
       </c>
       <c r="D11" t="n">
-        <v>2319.3</v>
+        <v>2287.6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Disability, Employment Needs</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/natahsah/</t>
+          <t>https://rayofhope.sg/campaign/fazali/</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
+          <t>chronic-illness, disability, mental-health</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -853,31 +853,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nor’s tattoo removal would allow her to become financially independent.</t>
+          <t>Selfless Love: The Sacrifice of Caregiving</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2938</v>
+        <v>2288.5</v>
       </c>
       <c r="D12" t="n">
-        <v>2938</v>
+        <v>2288.5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0 Families In Need, Employment Needs</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/nors-tattoo-removal/</t>
+          <t>https://rayofhope.sg/campaign/fina/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, mental-health</t>
+          <t>children-12-years-and-below, families-in-need, seniors</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -890,35 +890,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Without this surgery, 7-month-old Oahida’s future looks uncertain</t>
+          <t>Help Arlene Recover: Support a Dedicated Caregiver’s Critical Medical Treatment</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51920</v>
+        <v>4251</v>
       </c>
       <c r="D13" t="n">
-        <v>94436</v>
+        <v>71442.73</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/oahida/</t>
+          <t>https://rayofhope.sg/campaign/help-arlene/</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, migrant-workers</t>
+          <t>chronic-illness, disability, migrant-workers</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>54.98</v>
+        <v>5.95</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -927,35 +927,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wheels of Change: Help Fazali Work Again</t>
+          <t>A mother determined to provide for her children</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>854</v>
+        <v>6862.4</v>
       </c>
       <c r="D14" t="n">
-        <v>2287.6</v>
+        <v>5963.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0 Disability, Employment Needs</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/fazali/</t>
+          <t>https://rayofhope.sg/campaign/jasmine/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>chronic-illness, disability, mental-health</t>
+          <t>children-12-years-and-below, families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>37.33</v>
+        <v>115.08</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -964,35 +964,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A Home to Heal: Help Priya and Arjun Rebuild Their Lives</t>
+          <t>Support a Struggling Family in Finding Stability</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2886</v>
+        <v>1535</v>
       </c>
       <c r="D15" t="n">
-        <v>8640</v>
+        <v>1491.59</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Families In Need, Employment Needs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/priya-and-arjun/</t>
+          <t>https://rayofhope.sg/campaign/liqin-ihsien/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>chronic-illness, disability, seniors</t>
+          <t>children-12-years-and-below, families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>33.4</v>
+        <v>102.91</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -1001,31 +1001,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Support Daniel who has little to no family support</t>
+          <t>Keeping Hope Alive: Support Mdm Anisah’s Dream for Her Children</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>1950</v>
+        <v>6416.4</v>
       </c>
       <c r="D16" t="n">
-        <v>1950</v>
+        <v>6416.4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/daniel/</t>
+          <t>https://rayofhope.sg/campaign/mdm-anisah/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>chronic-illness, ex-offenders, other-marginalised-communities</t>
+          <t>children-12-years-and-below, families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1038,31 +1038,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Roy wants to be a father who is consistently there for his family. He needs your help.</t>
+          <t>“While I might be unfit, that doesn’t stop me from upskilling myself,”</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4200</v>
+        <v>1750</v>
       </c>
       <c r="D17" t="n">
-        <v>4200</v>
+        <v>1750</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Relationship Building</t>
+          <t>0 Disability, Employment Needs</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/roy-wants-to-be-a-father-who-is-consistently-there-for-his-family-he-needs-your-help/</t>
+          <t>https://rayofhope.sg/campaign/mdm-imah-2/</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ex-offenders, families-in-need, youth-from-13-to-21-years</t>
+          <t>chronic-illness, disability, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1075,35 +1075,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Strength in Adversity: Supporting Muzammil’s Educational Journey</t>
+          <t>A Mother’s Breath of Hope: Support Mira &amp; Her Family</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3180</v>
+        <v>3375</v>
       </c>
       <c r="D18" t="n">
-        <v>3180</v>
+        <v>4830</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0 Youth (from 13 to 21 years), Education (Tertiary)</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/muzammil2/</t>
+          <t>https://rayofhope.sg/campaign/mira/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>chronic-illness, families-in-need, youth-from-13-to-21-years</t>
+          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>69.88</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -1112,31 +1112,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Medically unfit father lost his wife and 2 children but is determined to provide for the remaining two.</t>
+          <t>Support Daniel who has little to no family support</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4000</v>
+        <v>1950</v>
       </c>
       <c r="D19" t="n">
-        <v>4000</v>
+        <v>1950</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0 Mental Health, Living Expenses</t>
+          <t>0 Other Marginalised Communities, Living Expenses</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mohinder/</t>
+          <t>https://rayofhope.sg/campaign/daniel/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>families-in-need, mental-health, youth-from-13-to-21-years</t>
+          <t>chronic-illness, ex-offenders, other-marginalised-communities</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1149,31 +1149,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Selfless Love: The Sacrifice of Caregiving</t>
+          <t>Medically unfit father lost his wife and 2 children but is determined to provide for the remaining two.</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2288.5</v>
+        <v>4000</v>
       </c>
       <c r="D20" t="n">
-        <v>2288.5</v>
+        <v>4000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Mental Health, Living Expenses</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/fina/</t>
+          <t>https://rayofhope.sg/campaign/mohinder/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, seniors</t>
+          <t>families-in-need, mental-health, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1186,35 +1186,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Financial struggles threaten Mr. Selamat’s treatment continuation</t>
+          <t>Strength in Adversity: Supporting Muzammil’s Educational Journey</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C21" t="n">
-        <v>2250</v>
+        <v>3180</v>
       </c>
       <c r="D21" t="n">
-        <v>10273.45</v>
+        <v>3180</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Medical Treatment</t>
+          <t>0 Youth (from 13 to 21 years), Education (Tertiary)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/selamat/</t>
+          <t>https://rayofhope.sg/campaign/muzammil2/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>chronic-illness, mental-health, other-marginalised-communities</t>
+          <t>chronic-illness, families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>21.9</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -1223,35 +1223,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A Mother’s Breath of Hope: Support Mira &amp; Her Family</t>
+          <t>Give Mydin and his Siblings A Chance at Education</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3375</v>
+        <v>31037.96</v>
       </c>
       <c r="D22" t="n">
-        <v>4830</v>
+        <v>31037.96</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Other Marginalised Communities, Education (Basic)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mira/</t>
+          <t>https://rayofhope.sg/campaign/mydinandsiblings/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
+          <t>children-12-years-and-below, other-marginalised-communities, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>69.88</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -1260,35 +1260,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Help Arlene Recover: Support a Dedicated Caregiver’s Critical Medical Treatment</t>
+          <t>Nor’s tattoo removal would allow her to become financially independent.</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4251</v>
+        <v>2938</v>
       </c>
       <c r="D23" t="n">
-        <v>71442.73</v>
+        <v>2938</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Families In Need, Employment Needs</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/help-arlene/</t>
+          <t>https://rayofhope.sg/campaign/nors-tattoo-removal/</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>chronic-illness, disability, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5.95</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -1297,17 +1297,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Your donations will allow 68-year-old Mdm Li to recover with peace of mind</t>
+          <t>Without this surgery, 7-month-old Oahida’s future looks uncertain</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3155</v>
+        <v>51920</v>
       </c>
       <c r="D24" t="n">
-        <v>3153</v>
+        <v>94436</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1316,16 +1316,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm_li/</t>
+          <t>https://rayofhope.sg/campaign/oahida/</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>chronic-illness, mental-health, seniors</t>
+          <t>children-12-years-and-below, chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>100.06</v>
+        <v>54.98</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -1334,31 +1334,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>“While I might be unfit, that doesn’t stop me from upskilling myself,”</t>
+          <t>A Home to Heal: Help Priya and Arjun Rebuild Their Lives</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C25" t="n">
-        <v>1750</v>
+        <v>8640</v>
       </c>
       <c r="D25" t="n">
-        <v>1750</v>
+        <v>8640</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0 Disability, Employment Needs</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-imah-2/</t>
+          <t>https://rayofhope.sg/campaign/priya-and-arjun/</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>chronic-illness, disability, youth-from-13-to-21-years</t>
+          <t>chronic-illness, disability, seniors</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1371,35 +1371,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Keeping Hope Alive: Support Mdm Anisah’s Dream for Her Children</t>
+          <t>Roy wants to be a father who is consistently there for his family. He needs your help.</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="D26" t="n">
-        <v>6416.4</v>
+        <v>4200</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Ex-Offenders, Relationship Building</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-anisah/</t>
+          <t>https://rayofhope.sg/campaign/roy-wants-to-be-a-father-who-is-consistently-there-for-his-family-he-needs-your-help/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, youth-from-13-to-21-years</t>
+          <t>ex-offenders, families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>42.08</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -1408,35 +1408,35 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A mother determined to provide for her children</t>
+          <t>Just A ferry away: Enable a father to be with his family every weekend</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>6862.4</v>
+        <v>1800</v>
       </c>
       <c r="D27" t="n">
-        <v>5963.2</v>
+        <v>1800</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Ex-Offenders, Relationship Building</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/jasmine/</t>
+          <t>https://rayofhope.sg/campaign/roy/</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, mental-health</t>
+          <t>ex-offenders, families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>115.08</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1445,35 +1445,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Support a Struggling Family in Finding Stability</t>
+          <t>Financial struggles threaten Mr. Selamat’s treatment continuation</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1535</v>
+        <v>2250</v>
       </c>
       <c r="D28" t="n">
-        <v>1491.59</v>
+        <v>10273.45</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0 Families In Need, Employment Needs</t>
+          <t>0 Other Marginalised Communities, Medical Treatment</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/liqin-ihsien/</t>
+          <t>https://rayofhope.sg/campaign/selamat/</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, mental-health</t>
+          <t>chronic-illness, mental-health, other-marginalised-communities</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>102.91</v>
+        <v>21.9</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -1482,31 +1482,31 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Just A ferry away: Enable a father to be with his family every weekend</t>
+          <t>She is my hands and feet, and I am her eyes and ears. Together, we make it work.</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1800</v>
+        <v>1685.6</v>
       </c>
       <c r="D29" t="n">
-        <v>1800</v>
+        <v>1685.6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Relationship Building</t>
+          <t>0 Disability, Medical Equipment</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/roy/</t>
+          <t>https://rayofhope.sg/campaign/she-is-my-hands-and-feet-and-i-am-her-eyes-and-ears-together-we-make-it-work/</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ex-offenders, families-in-need, youth-from-13-to-21-years</t>
+          <t>chronic-illness, disability, seniors</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1519,35 +1519,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A caregiver’s life turned upside down by his mother’s stroke.</t>
+          <t>A Young Mother’s Struggle to Keep Her Family Going</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C30" t="n">
-        <v>5444.5</v>
+        <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>7258</v>
+        <v>4800</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Equipment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-caregivers-life-turned-upside-down-by-his-mothers-stroke/</t>
+          <t>https://rayofhope.sg/campaign/syarifah/</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>disability, families-in-need, seniors</t>
+          <t>children-12-years-and-below, disability, families-in-need</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>75.01000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -1556,35 +1556,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Family’s livelihood at risk with sole breadwinner’s slip disc diagnosis</t>
+          <t>Support a single mother who wishes to be gainfully employed</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1868.64</v>
+        <v>1867</v>
       </c>
       <c r="D31" t="n">
-        <v>4000</v>
+        <v>1866.36</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ellina/</t>
+          <t>https://rayofhope.sg/campaign/thana/</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
+          <t>children-12-years-and-below, disability, families-in-need</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>46.72</v>
+        <v>100.03</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -1593,35 +1593,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Help a household of 14 during this difficult period</t>
+          <t>Two Special Boys, One Common Dream</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2535</v>
+        <v>3400</v>
       </c>
       <c r="D32" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/azlinda-2/</t>
+          <t>https://rayofhope.sg/campaign/two-special-boys-one-common-dream/</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, youth-from-13-to-21-years</t>
+          <t>children-12-years-and-below, chronic-illness, disability</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>63.38</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -1667,35 +1667,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Support a single mother who wishes to be gainfully employed</t>
+          <t>Family’s livelihood at risk with sole breadwinner’s slip disc diagnosis</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1867</v>
+        <v>1868.64</v>
       </c>
       <c r="D34" t="n">
-        <v>1866.36</v>
+        <v>4000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/thana/</t>
+          <t>https://rayofhope.sg/campaign/ellina/</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, disability, families-in-need</t>
+          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>100.03</v>
+        <v>46.72</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -1704,35 +1704,35 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hope for Abraham and Lynn: Building a Brighter Future</t>
+          <t>A caregiver’s life turned upside down by his mother’s stroke.</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3790</v>
+        <v>5444.5</v>
       </c>
       <c r="D35" t="n">
-        <v>3789.4</v>
+        <v>7258</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Education (Basic)</t>
+          <t>0 Disability, Medical Equipment</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/abeandlynn/</t>
+          <t>https://rayofhope.sg/campaign/a-caregivers-life-turned-upside-down-by-his-mothers-stroke/</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, other-marginalised-communities</t>
+          <t>disability, families-in-need, seniors</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>100.02</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -1741,35 +1741,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Your donations will allow a mother with an autistic son return home to visit her elderly mum with ailing health</t>
+          <t>Little Vincent’s heart is giving out. Help save his life.</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1320</v>
+        <v>51511</v>
       </c>
       <c r="D36" t="n">
-        <v>1320</v>
+        <v>97300</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0 Families In Need, Relationship Building</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/alex/</t>
+          <t>https://rayofhope.sg/campaign/a-heart-in-trouble/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need, mental-health</t>
+          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>100</v>
+        <v>52.94</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1778,35 +1778,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Two Special Boys, One Common Dream</t>
+          <t>Help a household of 14 during this difficult period</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>3400</v>
+        <v>2535</v>
       </c>
       <c r="D37" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/two-special-boys-one-common-dream/</t>
+          <t>https://rayofhope.sg/campaign/azlinda-2/</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, disability</t>
+          <t>children-12-years-and-below, families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>100</v>
+        <v>63.38</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -1815,35 +1815,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>She is my hands and feet, and I am her eyes and ears. Together, we make it work.</t>
+          <t>Hope for Abraham and Lynn: Building a Brighter Future</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1685.6</v>
+        <v>3790</v>
       </c>
       <c r="D38" t="n">
-        <v>1685.6</v>
+        <v>3789.4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Equipment</t>
+          <t>0 Other Marginalised Communities, Education (Basic)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/she-is-my-hands-and-feet-and-i-am-her-eyes-and-ears-together-we-make-it-work/</t>
+          <t>https://rayofhope.sg/campaign/abeandlynn/</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>chronic-illness, disability, seniors</t>
+          <t>children-12-years-and-below, families-in-need, other-marginalised-communities</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -1852,35 +1852,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Little Vincent’s heart is giving out. Help save his life.</t>
+          <t>Your donations will allow a mother with an autistic son return home to visit her elderly mum with ailing health</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>51511</v>
+        <v>1320</v>
       </c>
       <c r="D39" t="n">
-        <v>97300</v>
+        <v>1320</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Families In Need, Relationship Building</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-heart-in-trouble/</t>
+          <t>https://rayofhope.sg/campaign/alex/</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness, families-in-need</t>
+          <t>children-12-years-and-below, families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>52.94</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -1926,35 +1926,35 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Support visually-impaired Mdm Yana so that she can continue with her dialysis.</t>
+          <t>Diagnosed with tumor-induced osteomalacia, Mdm Lee wants to have a better quality of life.</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3520</v>
+        <v>59678.45</v>
       </c>
       <c r="D41" t="n">
-        <v>3520</v>
+        <v>286000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-yana/</t>
+          <t>https://rayofhope.sg/campaign/mdmlee/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>chronic-illness, disability</t>
+          <t>chronic-illness, seniors</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>100</v>
+        <v>20.87</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -1963,26 +1963,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>“I may have suffered abuse, but I will be strong to protect my children.”</t>
+          <t>Mr. &amp; Mrs. Ho: A Story of Resilience and Love</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>3015</v>
+        <v>6400.2</v>
       </c>
       <c r="D42" t="n">
-        <v>3000</v>
+        <v>6400.2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Families In Need, Living Environment</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm_wati/</t>
+          <t>https://rayofhope.sg/campaign/mr-and-mrs-ho/</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -2000,31 +2000,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>“I just want the best for my girls, without being a burden to them.”</t>
+          <t>Sandwiched between three generations, Mr Fu is no longer able to support his family.</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="D43" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm_sandy/</t>
+          <t>https://rayofhope.sg/campaign/mr-fu/</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2037,35 +2037,35 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Help Three Generations of Women Stay Afloat</t>
+          <t>Your support will get Mr. Kong closer to his family.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>505</v>
+        <v>2092</v>
       </c>
       <c r="D44" t="n">
-        <v>1200</v>
+        <v>2832</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/tina2/</t>
+          <t>https://rayofhope.sg/campaign/mr-kong/</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>42.08</v>
+        <v>73.87</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -2074,35 +2074,35 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>“I Fought to Stay Alive”: Aisyah’s Journey to Build a Safe Home for Her Children</t>
+          <t>Help a single father keep his son in school</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1778.28</v>
+        <v>5110</v>
       </c>
       <c r="D45" t="n">
-        <v>2028.4</v>
+        <v>5060</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Other Marginalised Communities, Education (Basic)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdmaisyah2/</t>
+          <t>https://rayofhope.sg/campaign/mr-ong/</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>disability, families-in-need</t>
+          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>87.67</v>
+        <v>100.99</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -2111,35 +2111,35 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diagnosed with tumor-induced osteomalacia, Mdm Lee wants to have a better quality of life.</t>
+          <t>Your gift will allow Muzammil to take his ‘N’ levels this year</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>59678.45</v>
+        <v>5423</v>
       </c>
       <c r="D46" t="n">
-        <v>286000</v>
+        <v>5423</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Other Marginalised Communities, Education (Basic)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdmlee/</t>
+          <t>https://rayofhope.sg/campaign/muzammil/</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>chronic-illness, seniors</t>
+          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.87</v>
+        <v>100</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -2148,35 +2148,35 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Support Tina’s journey in overcoming adversity</t>
+          <t>A TB diagnosis became the turning point for Mr Sunga’s life</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>3587.2</v>
+        <v>1719</v>
       </c>
       <c r="D47" t="n">
-        <v>3337.2</v>
+        <v>2918.8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/tina/</t>
+          <t>https://rayofhope.sg/campaign/mrsunga/</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>107.49</v>
+        <v>58.89</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -2185,35 +2185,35 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Give Xiao Yue A Second Chance at a Brighter Future</t>
+          <t>“I’m working today to ensure my family has food tomorrow,”</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>4155</v>
+        <v>1800</v>
       </c>
       <c r="D48" t="n">
-        <v>3800</v>
+        <v>3530.8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/xiaoyue/</t>
+          <t>https://rayofhope.sg/campaign/mohammad_f/</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ex-offenders, youth-from-13-to-21-years</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>109.34</v>
+        <v>50.98</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -2222,35 +2222,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Help a 61-year old with limited physical mobility regain confidence and stand on her feet.</t>
+          <t>Provide 70-year-old cancer and stroke survivor with essential support</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>4336.82</v>
+        <v>4720</v>
       </c>
       <c r="D49" t="n">
-        <v>2396</v>
+        <v>4720</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0 Families In Need, Employment Needs</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-rani/</t>
+          <t>https://rayofhope.sg/campaign/andrea/</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>disability, families-in-need</t>
+          <t>chronic-illness, seniors</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -2259,35 +2259,35 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Enable Yong Qing to rebuild his life, free from Cancer.</t>
+          <t>“My entire life has no future, but I want to change it because of my child.”</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1545</v>
+        <v>1726.2</v>
       </c>
       <c r="D50" t="n">
-        <v>16178.43</v>
+        <v>2071.2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/yongqing/</t>
+          <t>https://rayofhope.sg/campaign/my-entire-life-has-no-future-but-i-want-to-change-it-because-of-my-child/</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9.550000000000001</v>
+        <v>83.34</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -2296,31 +2296,31 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mdm Devi: A Mother’s Love and Determination in Difficult Times</t>
+          <t>“How can I support my family if I’m in so much pain everyday,”</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2673</v>
+        <v>3200</v>
       </c>
       <c r="D51" t="n">
-        <v>2673</v>
+        <v>3200</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-devi-a-mothers-love/</t>
+          <t>https://rayofhope.sg/campaign/amzad/</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>chronic-illness, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2333,31 +2333,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Unable to support his family who solely relies on him, Yousuf is in distress</t>
+          <t>Help Ansar Provide Clean Clothes for His Family</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1620</v>
+        <v>1200</v>
       </c>
       <c r="D52" t="n">
-        <v>1620</v>
+        <v>1200</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Disability, Living Environment</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/yousuf/</t>
+          <t>https://rayofhope.sg/campaign/ansar/</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>disability, families-in-need</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2370,35 +2370,35 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Give Ashley the chance to pursue Secondary education</t>
+          <t>Helping Mdm Devi Reach Brighter Days: Continued Support for Her Family</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>2895</v>
+        <v>142</v>
       </c>
       <c r="D53" t="n">
-        <v>6372</v>
+        <v>1950</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0 Youth (from 13 to 21 years), Education (Basic)</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mark/</t>
+          <t>https://rayofhope.sg/campaign/continued-support-for-mdm-devi/</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>families-in-need, youth-from-13-to-21-years</t>
+          <t>chronic-illness, families-in-need</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>45.43</v>
+        <v>7.28</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -2407,35 +2407,35 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Help Zaki’s family to piece their lives together again.</t>
+          <t>An accident at work left Arafur jobless</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>4300</v>
+        <v>2000</v>
       </c>
       <c r="D54" t="n">
-        <v>4263.49</v>
+        <v>2000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 Mental Health, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/zaki/</t>
+          <t>https://rayofhope.sg/campaign/arafur/</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>families-in-need, mental-health</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>100.86</v>
+        <v>100</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -2444,35 +2444,35 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Help Lynn relieve her stress from her caregiving duties</t>
+          <t>Nashir lives in distress with no means to support his family</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>11100</v>
+        <v>3110</v>
       </c>
       <c r="D55" t="n">
-        <v>10560</v>
+        <v>3000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0 Seniors, Personal Crisis</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/lynn/</t>
+          <t>https://rayofhope.sg/campaign/nashir/</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>families-in-need, seniors</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>105.11</v>
+        <v>103.67</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -2481,35 +2481,35 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A Young Single Mother’s Fight for Independence</t>
+          <t>“I Fought to Stay Alive”: Aisyah’s Journey to Build a Safe Home for Her Children</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>4242</v>
+        <v>1828.28</v>
       </c>
       <c r="D56" t="n">
-        <v>6211.7</v>
+        <v>2028.4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/liyana/</t>
+          <t>https://rayofhope.sg/campaign/mdmaisyah2/</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, families-in-need</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>68.29000000000001</v>
+        <v>90.13</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -2518,35 +2518,35 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Help put Ziaur’s mind at ease while he undergoes therapy</t>
+          <t>“I may have suffered abuse, but I will be strong to protect my children.”</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>2377</v>
+        <v>3015</v>
       </c>
       <c r="D57" t="n">
-        <v>4480</v>
+        <v>3000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ziaur/</t>
+          <t>https://rayofhope.sg/campaign/mdm_wati/</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>53.06</v>
+        <v>100.5</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -2555,17 +2555,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>“I’m working today to ensure my family has food tomorrow,”</t>
+          <t>“I just want the best for my girls, without being a burden to them.”</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="D58" t="n">
-        <v>3530.8</v>
+        <v>3000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mohammad_f/</t>
+          <t>https://rayofhope.sg/campaign/mdm_sandy/</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>50.98</v>
+        <v>100</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -2592,35 +2592,35 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>I just want to be a better provider for my son.</t>
+          <t>Boost Aravin’s mobility and self-esteem amid his medical condition</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>3000</v>
+        <v>1530</v>
       </c>
       <c r="D59" t="n">
-        <v>3000</v>
+        <v>1480</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Disability, Medical Equipment</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/shakilla/</t>
+          <t>https://rayofhope.sg/campaign/aravin-3/</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>disability, families-in-need</t>
+          <t>chronic-illness, disability</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>100</v>
+        <v>103.38</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -2629,17 +2629,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>After being crushed by a fork lift, Tetali is left injured and unemployed</t>
+          <t>Diagnosed with kidney failure, Asif is no longer able to support his parents</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>3000</v>
+        <v>4074</v>
       </c>
       <c r="D60" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2648,16 +2648,16 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/tetali/</t>
+          <t>https://rayofhope.sg/campaign/asif/</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>113.17</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -2666,35 +2666,35 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Help the injured Shamime with his living expenses while he awaits full MC wages.</t>
+          <t>Support visually-impaired Mdm Yana so that she can continue with her dialysis.</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>4481</v>
+        <v>3520</v>
       </c>
       <c r="D61" t="n">
-        <v>4248</v>
+        <v>3520</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/shamime/</t>
+          <t>https://rayofhope.sg/campaign/mdm-yana/</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, disability</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>105.48</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -2703,35 +2703,35 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Awaiting surgery for his lower back injury, Rony is anxious thinking about his family’s livelihood</t>
+          <t>Help a 61-year old with limited physical mobility regain confidence and stand on her feet.</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>2850</v>
+        <v>4336.82</v>
       </c>
       <c r="D62" t="n">
-        <v>2850</v>
+        <v>2396</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Employment Needs</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/rony/</t>
+          <t>https://rayofhope.sg/campaign/mdm-rani/</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>disability, families-in-need</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -2740,35 +2740,35 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A Mother’s Battle: Rita’s Fight Against Cancer</t>
+          <t>A plight of a single mother going through a difficult time</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>10050</v>
+        <v>2400</v>
       </c>
       <c r="D63" t="n">
-        <v>71975.27</v>
+        <v>2400</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ritas-fight-against-cancer/</t>
+          <t>https://rayofhope.sg/campaign/ayeesha/</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>chronic-illness, seniors</t>
+          <t>families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>13.96</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -2777,35 +2777,35 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>“Rally for Hanif: Support His Path to Recovery.”</t>
+          <t>Hope for Ayra: Supporting Her Kidney Treatment and Recovery</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C64" t="n">
-        <v>1890</v>
+        <v>3579.88</v>
       </c>
       <c r="D64" t="n">
-        <v>1890</v>
+        <v>3420</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/rally-for-hanif-support-him-during-his-path-to-recovery/</t>
+          <t>https://rayofhope.sg/campaign/ayra/</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>100</v>
+        <v>104.67</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -2814,31 +2814,31 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Support Rahman in his road to recovery after a workplace accident</t>
+          <t>Mdm Devi: A Mother’s Love and Determination in Difficult Times</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>3600</v>
+        <v>2673</v>
       </c>
       <c r="D65" t="n">
-        <v>3600</v>
+        <v>2673</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/rahman-m/</t>
+          <t>https://rayofhope.sg/campaign/mdm-devi-a-mothers-love/</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, families-in-need</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2851,35 +2851,35 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Shankar faced a sudden job loss due to a hand fracture</t>
+          <t>Stuck in limbo, Naser’s future is uncertain.</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1932</v>
+        <v>1075</v>
       </c>
       <c r="D66" t="n">
-        <v>3220</v>
+        <v>1075</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/shankar/</t>
+          <t>https://rayofhope.sg/campaign/naser/</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -2888,17 +2888,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>“Every day I worry about my injury and family,”</t>
+          <t>“How can I take care of my family?” Injured, but Nobir still has his family in mind, every day.</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>3050</v>
+        <v>2190</v>
       </c>
       <c r="D67" t="n">
-        <v>3050</v>
+        <v>2190</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/rafique/</t>
+          <t>https://rayofhope.sg/campaign/nobir/</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2925,35 +2925,35 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>“I have been staying strong for the sake of my kids”</t>
+          <t>Help Natahsah with her autistic son’s milk &amp; diaper expenses for 6 months.</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>5269</v>
+        <v>2319.3</v>
       </c>
       <c r="D68" t="n">
-        <v>10500</v>
+        <v>2319.3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0 Families In Need, Personal Crisis</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/silvia/</t>
+          <t>https://rayofhope.sg/campaign/natahsah/</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>families-in-need, mental-health</t>
+          <t>children-12-years-and-below, chronic-illness</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>50.18</v>
+        <v>100</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -2962,35 +2962,35 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>“How can I take care of my family?” Injured, but Nobir still has his family in mind, every day.</t>
+          <t>Made for More: Siva Gopal Thaiyalan’s birthday campaign to fund prosthetics for Renuka and Nannan</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2190</v>
+        <v>13950</v>
       </c>
       <c r="D69" t="n">
-        <v>2190</v>
+        <v>20000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Disability, Medical Equipment</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/nobir/</t>
+          <t>https://rayofhope.sg/campaign/made-for-more/</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, disability</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>100</v>
+        <v>69.75</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -2999,35 +2999,35 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>“How do I choose between tending to my husband’s medical needs and finding employment?”</t>
+          <t>Help put Ziaur’s mind at ease while he undergoes therapy</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2820</v>
+        <v>2377</v>
       </c>
       <c r="D70" t="n">
-        <v>2800</v>
+        <v>4480</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/letchumy/</t>
+          <t>https://rayofhope.sg/campaign/ziaur/</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>100.71</v>
+        <v>53.06</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -3036,35 +3036,35 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Finding strength and hope amidst a divorce and stroke recovery</t>
+          <t>Help Zaki’s family to piece their lives together again.</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="D71" t="n">
-        <v>5000</v>
+        <v>4263.49</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Treatment</t>
+          <t>0 Mental Health, Living Expenses</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/siti-aisyah/</t>
+          <t>https://rayofhope.sg/campaign/zaki/</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>chronic-illness, disability</t>
+          <t>families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>100</v>
+        <v>100.86</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -3073,17 +3073,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nashir lives in distress with no means to support his family</t>
+          <t>Unable to support his family who solely relies on him, Yousuf is in distress</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>3110</v>
+        <v>1620</v>
       </c>
       <c r="D72" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/nashir/</t>
+          <t>https://rayofhope.sg/campaign/yousuf/</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>103.67</v>
+        <v>100</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -3110,35 +3110,35 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Stuck in limbo, Naser’s future is uncertain.</t>
+          <t>Enable Yong Qing to rebuild his life, free from Cancer.</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1075</v>
+        <v>1545</v>
       </c>
       <c r="D73" t="n">
-        <v>1075</v>
+        <v>16178.43</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/naser/</t>
+          <t>https://rayofhope.sg/campaign/yongqing/</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>100</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -3147,35 +3147,35 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>“My entire life has no future, but I want to change it because of my child.”</t>
+          <t>Give Xiao Yue A Second Chance at a Brighter Future</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C74" t="n">
-        <v>1726.2</v>
+        <v>4155</v>
       </c>
       <c r="D74" t="n">
-        <v>2071.2</v>
+        <v>3800</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Ex-Offenders, Living Expenses</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/my-entire-life-has-no-future-but-i-want-to-change-it-because-of-my-child/</t>
+          <t>https://rayofhope.sg/campaign/xiaoyue/</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>ex-offenders, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>83.34</v>
+        <v>109.34</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -3184,35 +3184,35 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>“It’s difficult now because I cannot support me and my family,”</t>
+          <t>A gift for Jhona – Our Birthday Appeal</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>2750</v>
+        <v>69440.2</v>
       </c>
       <c r="D75" t="n">
-        <v>2750</v>
+        <v>92970.50999999999</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/sujon/</t>
+          <t>https://rayofhope.sg/campaign/a-gift-for-jhona-our-birthday-appeal/</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>100</v>
+        <v>74.69</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -3221,35 +3221,35 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Your gift will allow Muzammil to take his ‘N’ levels this year</t>
+          <t>Help Three Generations of Women Stay Afloat</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C76" t="n">
-        <v>5423</v>
+        <v>515</v>
       </c>
       <c r="D76" t="n">
-        <v>5423</v>
+        <v>1200</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Education (Basic)</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/muzammil/</t>
+          <t>https://rayofhope.sg/campaign/tina2/</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>100</v>
+        <v>42.92</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -3258,35 +3258,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Support 71-Year-Old Cancer Survivor’s Medical &amp; Living Expenses</t>
+          <t>Support Tina’s journey in overcoming adversity</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>2444</v>
+        <v>3587.2</v>
       </c>
       <c r="D77" t="n">
-        <v>4800</v>
+        <v>3337.2</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/support-andrea/</t>
+          <t>https://rayofhope.sg/campaign/tina/</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>chronic-illness, seniors</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>50.92</v>
+        <v>107.49</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -3295,17 +3295,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A TB diagnosis became the turning point for Mr Sunga’s life</t>
+          <t>After being crushed by a fork lift, Tetali is left injured and unemployed</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1719</v>
+        <v>3000</v>
       </c>
       <c r="D78" t="n">
-        <v>2918.8</v>
+        <v>3000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3314,16 +3314,16 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mrsunga/</t>
+          <t>https://rayofhope.sg/campaign/tetali/</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>58.89</v>
+        <v>100</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -3369,35 +3369,35 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Help a single father keep his son in school</t>
+          <t>Support 71-Year-Old Cancer Survivor’s Medical &amp; Living Expenses</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C80" t="n">
-        <v>5110</v>
+        <v>4800</v>
       </c>
       <c r="D80" t="n">
-        <v>5060</v>
+        <v>4800</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Education (Basic)</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mr-ong/</t>
+          <t>https://rayofhope.sg/campaign/support-andrea/</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
+          <t>chronic-illness, seniors</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>100.99</v>
+        <v>100</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -3406,17 +3406,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Your support will get Mr. Kong closer to his family.</t>
+          <t>“It’s difficult now because I cannot support me and my family,”</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>2092</v>
+        <v>2750</v>
       </c>
       <c r="D81" t="n">
-        <v>2832</v>
+        <v>2750</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mr-kong/</t>
+          <t>https://rayofhope.sg/campaign/sujon/</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>73.87</v>
+        <v>100</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -3443,31 +3443,31 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sandwiched between three generations, Mr Fu is no longer able to support his family.</t>
+          <t>Finding strength and hope amidst a divorce and stroke recovery</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>2250</v>
+        <v>5000</v>
       </c>
       <c r="D82" t="n">
-        <v>2250</v>
+        <v>5000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Disability, Medical Treatment</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mr-fu/</t>
+          <t>https://rayofhope.sg/campaign/siti-aisyah/</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, disability</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3480,35 +3480,35 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mr. &amp; Mrs. Ho: A Story of Resilience and Love</t>
+          <t>A Story Of Resilience: Overcoming Domestic Violence With Courage</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>6261</v>
+        <v>2524</v>
       </c>
       <c r="D83" t="n">
-        <v>6400.2</v>
+        <v>2373.7</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Environment</t>
+          <t>0 Mental Health, Living Expenses</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mr-and-mrs-ho/</t>
+          <t>https://rayofhope.sg/campaign/a-story-of-resilience-overcoming-domestic-violence-with-courage/</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>97.83</v>
+        <v>106.33</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -3517,35 +3517,35 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Made for More: Siva Gopal Thaiyalan’s birthday campaign to fund prosthetics for Renuka and Nannan</t>
+          <t>Shankar faced a sudden job loss due to a hand fracture</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>13950</v>
+        <v>1932</v>
       </c>
       <c r="D84" t="n">
-        <v>20000</v>
+        <v>3220</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Equipment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/made-for-more/</t>
+          <t>https://rayofhope.sg/campaign/shankar/</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>chronic-illness, disability</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>69.75</v>
+        <v>60</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -3554,35 +3554,35 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Give 17-year-old Ramadhani a chance to complete her education!</t>
+          <t>Help the injured Shamime with his living expenses while he awaits full MC wages.</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>12986.4</v>
+        <v>4481</v>
       </c>
       <c r="D85" t="n">
-        <v>29796.4</v>
+        <v>4248</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Education (Tertiary)</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/kasrin-3/</t>
+          <t>https://rayofhope.sg/campaign/shamime/</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>43.58</v>
+        <v>105.48</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -3591,31 +3591,31 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10-year-old Debbie requires a new prosthetic!</t>
+          <t>I just want to be a better provider for my son.</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>3691</v>
+        <v>3000</v>
       </c>
       <c r="D86" t="n">
-        <v>3691</v>
+        <v>3000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Equipment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/debbie/</t>
+          <t>https://rayofhope.sg/campaign/shakilla/</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, disability</t>
+          <t>disability, families-in-need</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3628,31 +3628,31 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Belinda Sunshine’s Resilience: Overcoming Cancer with Determination</t>
+          <t>Aini and Sham: Standing Together Through Life’s Storms</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>8081.82</v>
+        <v>4150</v>
       </c>
       <c r="D87" t="n">
-        <v>8081.82</v>
+        <v>4150</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/belindasunshine/</t>
+          <t>https://rayofhope.sg/campaign/aini-and-sham/</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>chronic-illness, seniors</t>
+          <t>disability, seniors</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3665,17 +3665,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Struggling to Return Home: Akash’s Long Wait for Justice and Recovery</t>
+          <t>Awaiting surgery for his lower back injury, Rony is anxious thinking about his family’s livelihood</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>357</v>
+        <v>2850</v>
       </c>
       <c r="D88" t="n">
-        <v>1200</v>
+        <v>2850</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/brother-akash/</t>
+          <t>https://rayofhope.sg/campaign/rony/</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>29.75</v>
+        <v>100</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -3702,35 +3702,35 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>“For 16 Years, I No Trouble Work Here. Why Company No Take Care Me”</t>
+          <t>A Mother’s Battle: Rita’s Fight Against Cancer</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C89" t="n">
-        <v>622</v>
+        <v>10100</v>
       </c>
       <c r="D89" t="n">
-        <v>2060</v>
+        <v>71975.27</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/brother-nayon/</t>
+          <t>https://rayofhope.sg/campaign/ritas-fight-against-cancer/</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, seniors</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>30.19</v>
+        <v>14.03</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -3739,17 +3739,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Rahman’s Story: A Journey Marked by Hardship and Resilience</t>
+          <t>“Rally for Hanif: Support His Path to Recovery.”</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>90</v>
+        <v>1890</v>
       </c>
       <c r="D90" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/brother-rahman/</t>
+          <t>https://rayofhope.sg/campaign/rally-for-hanif-support-him-during-his-path-to-recovery/</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -3776,17 +3776,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Healing from Injury, Yet Still Carrying the Weight: Help Sajal Stay Afloat</t>
+          <t>Support Rahman in his road to recovery after a workplace accident</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>372</v>
+        <v>3600</v>
       </c>
       <c r="D91" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/brother-sajal/</t>
+          <t>https://rayofhope.sg/campaign/rahman-m/</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -3813,35 +3813,35 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Helping Mdm Devi Reach Brighter Days: Continued Support for Her Family</t>
+          <t>“Every day I worry about my injury and family,”</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>142</v>
+        <v>3050</v>
       </c>
       <c r="D92" t="n">
-        <v>1950</v>
+        <v>3050</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/continued-support-for-mdm-devi/</t>
+          <t>https://rayofhope.sg/campaign/rafique/</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>chronic-illness, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>7.28</v>
+        <v>100</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -3850,31 +3850,31 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Support a family of three as they stabilise their income</t>
+          <t>Ali, sole breadwinner, and father of two, was left with an untreated hearing loss.</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1860</v>
+        <v>4440</v>
       </c>
       <c r="D93" t="n">
-        <v>1860</v>
+        <v>4440</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0 Families In Need, Employment Needs</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/e-natasha/</t>
+          <t>https://rayofhope.sg/campaign/ali-md-sukur/</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3887,35 +3887,35 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A Father’s Struggle: Supporting Firoz through injury and isolation.</t>
+          <t>Make Education a reality for Amir and his Siblings</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>3900</v>
+        <v>14010</v>
       </c>
       <c r="D94" t="n">
-        <v>3900</v>
+        <v>14000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Education (Basic)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/firoz/</t>
+          <t>https://rayofhope.sg/campaign/amirandsiblings/</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>100</v>
+        <v>100.07</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -3924,35 +3924,35 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>“Our son has gone though 7 major surgeries, but still wants to fight.”</t>
+          <t>Give Ashley the chance to pursue Secondary education</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>321320</v>
+        <v>2895</v>
       </c>
       <c r="D95" t="n">
-        <v>309500</v>
+        <v>6372</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Youth (from 13 to 21 years), Education (Basic)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/elton/</t>
+          <t>https://rayofhope.sg/campaign/mark/</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness</t>
+          <t>families-in-need, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>103.82</v>
+        <v>45.43</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -3961,35 +3961,35 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Help Emilyn with her daughter’s nanny fees for 5 months while she focuses on securing her employment.</t>
+          <t>Split-Second Hero: Rofiqul’s Brave Choice and His Road to Recovery</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C96" t="n">
-        <v>6525</v>
+        <v>2100</v>
       </c>
       <c r="D96" t="n">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/emilyn/</t>
+          <t>https://rayofhope.sg/rofiquls-brave-choice-and-his-road-to-recovery/</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>100.38</v>
+        <v>100</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -3998,35 +3998,35 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>An accident left Ensha unable to provide sufficiently for him and his family</t>
+          <t>Supporting Mdm Rafiah’s Journey to Healing and Independence</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>2195</v>
+        <v>4160</v>
       </c>
       <c r="D97" t="n">
-        <v>4200</v>
+        <v>4160</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Disability, Personal Crisis</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ensha/</t>
+          <t>https://rayofhope.sg/campaign/healingforrafiah/</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>disability, seniors</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>52.26</v>
+        <v>100</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -4035,35 +4035,35 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Support a single mother of two as she upskills herself</t>
+          <t>Help Rubel support his young family while he fights stage 4 cancer</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1350</v>
+        <v>90685</v>
       </c>
       <c r="D98" t="n">
-        <v>1350</v>
+        <v>50000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/errinawaty/</t>
+          <t>https://rayofhope.sg/campaign/help-rubel-support-his-young-family-while-he-fights-stage-4-cancer/</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>100</v>
+        <v>181.37</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -4072,26 +4072,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Fund Brain Surgery to Save Grace’s Life</t>
+          <t>Compromised work safety lead to Hossainur’s severe back injury</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>6460</v>
+        <v>1901</v>
       </c>
       <c r="D99" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/esthergrace/</t>
+          <t>https://rayofhope.sg/campaign/hossainur/</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>32.3</v>
+        <v>100.05</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -4109,31 +4109,31 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>“I don’t know how the future looks. No treatment, no money to support my family back home.”</t>
+          <t>“I may not be a doctor, but I want to care for my wife because I’m her husband”</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>3540</v>
+        <v>2520</v>
       </c>
       <c r="D100" t="n">
-        <v>3540</v>
+        <v>2520</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/faysal/</t>
+          <t>https://rayofhope.sg/campaign/gazalee/</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>chronic-illness, seniors</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4146,35 +4146,35 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>After his miracle birth, Baby Dennis still needs your help</t>
+          <t>Help Emilyn with her daughter’s nanny fees for 5 months while she focuses on securing her employment.</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>21215</v>
+        <v>6525</v>
       </c>
       <c r="D101" t="n">
-        <v>21169.63</v>
+        <v>6500</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/babydennis/</t>
+          <t>https://rayofhope.sg/campaign/emilyn/</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>100.21</v>
+        <v>100.38</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -4183,35 +4183,35 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Help Firdaus and Maria welcome their premature baby home</t>
+          <t>Hope for Belayet: Fighting Cancer Together</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>3600</v>
+        <v>4128</v>
       </c>
       <c r="D102" t="n">
-        <v>3600</v>
+        <v>7024.5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/babyaiman/</t>
+          <t>https://rayofhope.sg/campaign/hossain-belayet/</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>families-in-need, mental-health</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>100</v>
+        <v>58.77</v>
       </c>
       <c r="I102" t="n">
         <v>2</v>
@@ -4220,35 +4220,35 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A Miracle in Motion: Helping Baby Salim Take His Next Steps</t>
+          <t>Give Flora a Fighting Chance</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>13750</v>
+        <v>14309</v>
       </c>
       <c r="D103" t="n">
-        <v>12960</v>
+        <v>60443.63</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Therapy</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/baby-salim/</t>
+          <t>https://rayofhope.sg/campaign/flora_ramirez/</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>106.1</v>
+        <v>23.67</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -4257,35 +4257,35 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Baby Lucas needs a chance to live and needs your help</t>
+          <t>Build a brighter future for a single mother and her children</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>2413474.66</v>
+        <v>4858</v>
       </c>
       <c r="D104" t="n">
-        <v>2409000</v>
+        <v>4818</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/baby-lucas/</t>
+          <t>https://rayofhope.sg/campaign/hema-brighter-future/</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, chronic-illness</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>100.19</v>
+        <v>100.83</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -4294,35 +4294,35 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hope for Ayra: Supporting Her Kidney Treatment and Recovery</t>
+          <t>Struggling to Return Home: Akash’s Long Wait for Justice and Recovery</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C105" t="n">
-        <v>3579.88</v>
+        <v>557</v>
       </c>
       <c r="D105" t="n">
-        <v>3420</v>
+        <v>1200</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ayra/</t>
+          <t>https://rayofhope.sg/campaign/brother-akash/</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>104.67</v>
+        <v>46.42</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -4331,35 +4331,35 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A plight of a single mother going through a difficult time</t>
+          <t>Help Shafiqul Provide for His Family Before He Says Goodbye</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>2400</v>
+        <v>8919</v>
       </c>
       <c r="D106" t="n">
-        <v>2400</v>
+        <v>28800</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Personal Crisis</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ayeesha/</t>
+          <t>https://rayofhope.sg/campaign/help-shafiqul-as-he-battles-cancer/</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>families-in-need, youth-from-13-to-21-years</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>100</v>
+        <v>30.97</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -4368,35 +4368,35 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Diagnosed with kidney failure, Asif is no longer able to support his parents</t>
+          <t>Help Mr. Perez Recover from Stroke and Rebuild his life</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>4074</v>
+        <v>1775</v>
       </c>
       <c r="D107" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Disability, Living Expenses</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/asif/</t>
+          <t>https://rayofhope.sg/campaign/help-mr-perez-recover-from-stroke/</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>disability, seniors</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>113.17</v>
+        <v>147.92</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -4405,35 +4405,35 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Boost Aravin’s mobility and self-esteem amid his medical condition</t>
+          <t>Healing from Injury, Yet Still Carrying the Weight: Help Sajal Stay Afloat</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C108" t="n">
-        <v>1530</v>
+        <v>372</v>
       </c>
       <c r="D108" t="n">
-        <v>1480</v>
+        <v>1200</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Equipment</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/aravin-3/</t>
+          <t>https://rayofhope.sg/campaign/brother-sajal/</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>chronic-illness, disability</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>103.38</v>
+        <v>31</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -4442,17 +4442,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>An accident at work left Arafur jobless</t>
+          <t>Rahman’s Story: A Journey Marked by Hardship and Resilience</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="D109" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/arafur/</t>
+          <t>https://rayofhope.sg/campaign/brother-rahman/</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -4479,35 +4479,35 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Help Ansar Provide Clean Clothes for His Family</t>
+          <t>An accident left Ensha unable to provide sufficiently for him and his family</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1200</v>
+        <v>2195</v>
       </c>
       <c r="D110" t="n">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0 Disability, Living Environment</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ansar/</t>
+          <t>https://rayofhope.sg/campaign/ensha/</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>disability, families-in-need</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>100</v>
+        <v>52.26</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -4516,35 +4516,35 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Provide 70-year-old cancer and stroke survivor with essential support</t>
+          <t>Help Haque Hold On as He Waits for His Injury Claim</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C111" t="n">
-        <v>4720</v>
+        <v>999</v>
       </c>
       <c r="D111" t="n">
-        <v>4720</v>
+        <v>1800</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/andrea/</t>
+          <t>https://rayofhope.sg/campaign/help-brother-haque/</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>chronic-illness, seniors</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>100</v>
+        <v>55.5</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -4553,31 +4553,31 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>“How can I support my family if I’m in so much pain everyday,”</t>
+          <t>Belinda Sunshine’s Resilience: Overcoming Cancer with Determination</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>3200</v>
+        <v>8081.82</v>
       </c>
       <c r="D112" t="n">
-        <v>3200</v>
+        <v>8081.82</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Living Expenses</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/amzad/</t>
+          <t>https://rayofhope.sg/campaign/belindasunshine/</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>chronic-illness, seniors</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4590,35 +4590,35 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Make Education a reality for Amir and his Siblings</t>
+          <t>“I don’t know how the future looks. No treatment, no money to support my family back home.”</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>14010</v>
+        <v>3540</v>
       </c>
       <c r="D113" t="n">
-        <v>14000</v>
+        <v>3540</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0 Families In Need, Education (Basic)</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/amirandsiblings/</t>
+          <t>https://rayofhope.sg/campaign/faysal/</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>families-in-need, youth-from-13-to-21-years</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>100.07</v>
+        <v>100</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -4627,17 +4627,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ali, sole breadwinner, and father of two, was left with an untreated hearing loss.</t>
+          <t>Surviving 74% Burns: Help Alom Rebuild His Life After a Tragic Accident</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C114" t="n">
-        <v>4440</v>
+        <v>2100.5</v>
       </c>
       <c r="D114" t="n">
-        <v>4440</v>
+        <v>2100</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/ali-md-sukur/</t>
+          <t>https://rayofhope.sg/campaign/help-alom-rebuild-his-life/</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -4664,31 +4664,31 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Aini and Sham: Standing Together Through Life’s Storms</t>
+          <t>Support a single mother of two as she upskills herself</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>4150</v>
+        <v>1350</v>
       </c>
       <c r="D115" t="n">
-        <v>4150</v>
+        <v>1350</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/aini-and-sham/</t>
+          <t>https://rayofhope.sg/campaign/errinawaty/</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>disability, seniors</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -4701,35 +4701,35 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A Story Of Resilience: Overcoming Domestic Violence With Courage</t>
+          <t>Fund Brain Surgery to Save Grace’s Life</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>2524</v>
+        <v>6460</v>
       </c>
       <c r="D116" t="n">
-        <v>2373.7</v>
+        <v>20000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0 Mental Health, Living Expenses</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-story-of-resilience-overcoming-domestic-violence-with-courage/</t>
+          <t>https://rayofhope.sg/campaign/esthergrace/</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>families-in-need, mental-health</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>106.33</v>
+        <v>32.3</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -4738,35 +4738,35 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A gift for Jhona – Our Birthday Appeal</t>
+          <t>“Our son has gone though 7 major surgeries, but still wants to fight.”</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>69440.2</v>
+        <v>321320</v>
       </c>
       <c r="D117" t="n">
-        <v>92970.50999999999</v>
+        <v>309500</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-gift-for-jhona-our-birthday-appeal/</t>
+          <t>https://rayofhope.sg/campaign/elton/</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>children-12-years-and-below, chronic-illness</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>74.69</v>
+        <v>103.82</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -4775,17 +4775,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kartik’s Fight to Reclaim His Life</t>
+          <t>After his miracle birth, Baby Dennis still needs your help</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>6792.37</v>
+        <v>21215</v>
       </c>
       <c r="D118" t="n">
-        <v>68076.73</v>
+        <v>21169.63</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4794,16 +4794,16 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/fight-for-kartik/</t>
+          <t>https://rayofhope.sg/campaign/babydennis/</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, migrant-workers</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>9.98</v>
+        <v>100.21</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -4849,35 +4849,35 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Give Flora a Fighting Chance</t>
+          <t>Left jobless, Kamrul is unable to support his family back home</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>14309</v>
+        <v>1378</v>
       </c>
       <c r="D120" t="n">
-        <v>60443.63</v>
+        <v>2460</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/flora_ramirez/</t>
+          <t>https://rayofhope.sg/campaign/kamrul/</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>23.67</v>
+        <v>56.02</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -4886,35 +4886,35 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Surviving 74% Burns: Help Alom Rebuild His Life After a Tragic Accident</t>
+          <t>A Young Single Mother’s Fight for Independence</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C121" t="n">
-        <v>2100.5</v>
+        <v>4242</v>
       </c>
       <c r="D121" t="n">
-        <v>2100</v>
+        <v>6211.7</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/help-alom-rebuild-his-life/</t>
+          <t>https://rayofhope.sg/campaign/liyana/</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>100.02</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -4923,35 +4923,35 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Left jobless, Kamrul is unable to support his family back home</t>
+          <t>Baby Lucas needs a chance to live and needs your help</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1378</v>
+        <v>2413474.66</v>
       </c>
       <c r="D122" t="n">
-        <v>2460</v>
+        <v>2409000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/kamrul/</t>
+          <t>https://rayofhope.sg/campaign/baby-lucas/</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, chronic-illness</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>56.02</v>
+        <v>100.19</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -4960,35 +4960,35 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6-year-old with a rare genetic disorder needs your help</t>
+          <t>A Father’s Struggle: Supporting Firoz through injury and isolation.</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>9716</v>
+        <v>3900</v>
       </c>
       <c r="D123" t="n">
-        <v>15600</v>
+        <v>3900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0 Disability, Therapy</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/joshua2/</t>
+          <t>https://rayofhope.sg/campaign/firoz/</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, disability</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>62.28</v>
+        <v>100</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -4997,35 +4997,35 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5-year-old with a rare genetic disorder needs help with his therapy sessions</t>
+          <t>A Miracle in Motion: Helping Baby Salim Take His Next Steps</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C124" t="n">
-        <v>23787</v>
+        <v>13750</v>
       </c>
       <c r="D124" t="n">
-        <v>23750</v>
+        <v>12960</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0 Disability, Therapy</t>
+          <t>0 Chronic Illness, Therapy</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/joshua/</t>
+          <t>https://rayofhope.sg/campaign/baby-salim/</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, disability</t>
+          <t>children-12-years-and-below, chronic-illness</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>100.16</v>
+        <v>106.1</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -5034,17 +5034,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Supporting Johurul’s Road to Recovery</t>
+          <t>A Hard Fall, A Long Road to Recovery: Washim Needs Our Support</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C125" t="n">
-        <v>2790</v>
+        <v>2440</v>
       </c>
       <c r="D125" t="n">
-        <v>2790</v>
+        <v>2400</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/johurul/</t>
+          <t>https://rayofhope.sg/campaign/brother-washim/</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>100</v>
+        <v>101.67</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -5071,35 +5071,35 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A Migrant Brother’s Hope for Recovery and Family</t>
+          <t>10-year-old Debbie requires a new prosthetic!</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1850</v>
+        <v>3691</v>
       </c>
       <c r="D126" t="n">
-        <v>1800</v>
+        <v>3691</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Disability, Medical Equipment</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/jakiruls-hope-for-recovery-and-family/</t>
+          <t>https://rayofhope.sg/campaign/debbie/</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, disability</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>102.78</v>
+        <v>100</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -5108,17 +5108,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Support Jahirul in his fight against TB</t>
+          <t>“For 16 Years, I No Trouble Work Here. Why Company No Take Care Me”</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C127" t="n">
-        <v>1697.82</v>
+        <v>622</v>
       </c>
       <c r="D127" t="n">
-        <v>3400</v>
+        <v>2060</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5127,16 +5127,16 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/jahirul/</t>
+          <t>https://rayofhope.sg/campaign/brother-nayon/</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>49.94</v>
+        <v>30.19</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -5145,35 +5145,35 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Compromised work safety lead to Hossainur’s severe back injury</t>
+          <t>“How do I choose between tending to my husband’s medical needs and finding employment?”</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1901</v>
+        <v>2820</v>
       </c>
       <c r="D128" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hossainur/</t>
+          <t>https://rayofhope.sg/campaign/letchumy/</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>100.05</v>
+        <v>100.71</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -5182,35 +5182,35 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hope for Belayet: Fighting Cancer Together</t>
+          <t>Give 17-year-old Ramadhani a chance to complete her education!</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>4128</v>
+        <v>12986.4</v>
       </c>
       <c r="D129" t="n">
-        <v>7024.5</v>
+        <v>29796.4</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Other Marginalised Communities, Education (Tertiary)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hossain-belayet/</t>
+          <t>https://rayofhope.sg/campaign/kasrin-3/</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>58.77</v>
+        <v>43.58</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -5219,35 +5219,35 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Build a brighter future for a single mother and her children</t>
+          <t>6-year-old with a rare genetic disorder needs your help</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C130" t="n">
-        <v>4858</v>
+        <v>10701</v>
       </c>
       <c r="D130" t="n">
-        <v>4818</v>
+        <v>15600</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Disability, Therapy</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hema-brighter-future/</t>
+          <t>https://rayofhope.sg/campaign/joshua2/</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>children-12-years-and-below, families-in-need</t>
+          <t>children-12-years-and-below, disability</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>100.83</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -5256,35 +5256,35 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Help Shafiqul Provide for His Family Before He Says Goodbye</t>
+          <t>5-year-old with a rare genetic disorder needs help with his therapy sessions</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>8219</v>
+        <v>23787</v>
       </c>
       <c r="D131" t="n">
-        <v>28800</v>
+        <v>23750</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Personal Crisis</t>
+          <t>0 Disability, Therapy</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/help-shafiqul-as-he-battles-cancer/</t>
+          <t>https://rayofhope.sg/campaign/joshua/</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>children-12-years-and-below, disability</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>28.54</v>
+        <v>100.16</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -5293,35 +5293,35 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Help Rubel support his young family while he fights stage 4 cancer</t>
+          <t>Supporting Johurul’s Road to Recovery</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>90685</v>
+        <v>2790</v>
       </c>
       <c r="D132" t="n">
-        <v>50000</v>
+        <v>2790</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Medical Treatment</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/help-rubel-support-his-young-family-while-he-fights-stage-4-cancer/</t>
+          <t>https://rayofhope.sg/campaign/johurul/</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>chronic-illness, migrant-workers</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>181.37</v>
+        <v>100</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -5330,35 +5330,35 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Help Mr. Perez Recover from Stroke and Rebuild his life</t>
+          <t>Help Firdaus and Maria welcome their premature baby home</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1775</v>
+        <v>3600</v>
       </c>
       <c r="D133" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0 Disability, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/help-mr-perez-recover-from-stroke/</t>
+          <t>https://rayofhope.sg/campaign/babyaiman/</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>disability, seniors</t>
+          <t>families-in-need, mental-health</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>147.92</v>
+        <v>100</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -5367,31 +5367,31 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Split-Second Hero: Rofiqul’s Brave Choice and His Road to Recovery</t>
+          <t>Support a family of three as they stabilise their income</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>2100</v>
+        <v>1860</v>
       </c>
       <c r="D134" t="n">
-        <v>2100</v>
+        <v>1860</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Employment Needs</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/rofiquls-brave-choice-and-his-road-to-recovery/</t>
+          <t>https://rayofhope.sg/campaign/e-natasha/</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>disability, migrant-workers</t>
+          <t>children-12-years-and-below, families-in-need</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -5404,35 +5404,35 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Breaking Barriers: Give Khalid the Chance to Complete His Education</t>
+          <t>A Migrant Brother’s Hope for Recovery and Family</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C135" t="n">
-        <v>8480</v>
+        <v>1850</v>
       </c>
       <c r="D135" t="n">
-        <v>8480</v>
+        <v>1800</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0 Other Marginalised Communities, Education (Basic)</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/for-khalid/</t>
+          <t>https://rayofhope.sg/campaign/jakiruls-hope-for-recovery-and-family/</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>100</v>
+        <v>102.78</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -5441,31 +5441,31 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Supporting Mdm Rafiah’s Journey to Healing and Independence</t>
+          <t>Breaking Barriers: Give Khalid the Chance to Complete His Education</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C136" t="n">
-        <v>4160</v>
+        <v>8480</v>
       </c>
       <c r="D136" t="n">
-        <v>4160</v>
+        <v>8480</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0 Disability, Personal Crisis</t>
+          <t>0 Other Marginalised Communities, Education (Basic)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/healingforrafiah/</t>
+          <t>https://rayofhope.sg/campaign/for-khalid/</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>disability, seniors</t>
+          <t>other-marginalised-communities, youth-from-13-to-21-years</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -5478,35 +5478,35 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>“I may not be a doctor, but I want to care for my wife because I’m her husband”</t>
+          <t>Support Jahirul in his fight against TB</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>2520</v>
+        <v>1697.82</v>
       </c>
       <c r="D137" t="n">
-        <v>2520</v>
+        <v>3400</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/gazalee/</t>
+          <t>https://rayofhope.sg/campaign/jahirul/</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>chronic-illness, seniors</t>
+          <t>chronic-illness, migrant-workers</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>100</v>
+        <v>49.94</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -5515,109 +5515,109 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Education Giving Circle</t>
+          <t>Kartik’s Fight to Reclaim His Life</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>55995.6</v>
+        <v>6792.37</v>
       </c>
       <c r="D138" t="n">
-        <v>100000</v>
+        <v>68076.73</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Education Giving Circle</t>
+          <t>0 Migrant Workers, Medical Treatment</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/education-giving-circle/</t>
+          <t>https://rayofhope.sg/campaign/fight-for-kartik/</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4-giving-circles</t>
+          <t>disability, migrant-workers</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>56</v>
+        <v>9.98</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Supporting Ashliza: Because sometimes Mummy Has to Be Daddy Too</t>
+          <t>Help Lynn relieve her stress from her caregiving duties</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1740</v>
+        <v>11100</v>
       </c>
       <c r="D139" t="n">
-        <v>1740</v>
+        <v>10560</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Seniors, Personal Crisis</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/supporting-ashliza/</t>
+          <t>https://rayofhope.sg/campaign/lynn/</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>families-in-need, seniors</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>100</v>
+        <v>105.11</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mofijul’s Struggle: Left Injured and Without Support</t>
+          <t>“I wish to recover from cancer and see my son graduate from school”</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>160</v>
+        <v>6710</v>
       </c>
       <c r="D140" t="n">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mofijul/</t>
+          <t>https://rayofhope.sg/campaign/soe-paing/</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>chronic-illness</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>10.67</v>
+        <v>74.56</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -5626,35 +5626,35 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>“I wish to recover from cancer and see my son graduate from school”</t>
+          <t>“I have been staying strong for the sake of my kids”</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>6710</v>
+        <v>5269</v>
       </c>
       <c r="D141" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Families In Need, Personal Crisis</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/soe-paing/</t>
+          <t>https://rayofhope.sg/campaign/silvia/</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>chronic-illness</t>
+          <t>mental-health</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>74.56</v>
+        <v>50.18</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -5663,35 +5663,35 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A Mother Left to Carry the Weight Alone</t>
+          <t>Single Parent Giving Circle</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C142" t="n">
-        <v>3629.17</v>
+        <v>28994.7</v>
       </c>
       <c r="D142" t="n">
-        <v>3545</v>
+        <v>100000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>Single Parent Giving Circle</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/huang_zixuan/</t>
+          <t>https://rayofhope.sg/campaign/single-parents-giving-circle/</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>4-giving-circles</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>102.37</v>
+        <v>28.99</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -5700,35 +5700,35 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Help Iskandar Secure a Better Future for His Family</t>
+          <t>Empowering Women Giving Circle</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="C143" t="n">
-        <v>370</v>
+        <v>70341.49000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>3600</v>
+        <v>100000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0 Families In Need, Employment Needs</t>
+          <t>Empowering Women Giving Circle</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/iskandar/</t>
+          <t>https://rayofhope.sg/campaign/empowering-women-giving-circle/</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>4-giving-circles</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>10.28</v>
+        <v>70.34</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -5741,10 +5741,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C144" t="n">
-        <v>714</v>
+        <v>2012</v>
       </c>
       <c r="D144" t="n">
         <v>7300</v>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>9.779999999999999</v>
+        <v>27.56</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>2100</v>
@@ -5815,10 +5815,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>545</v>
+        <v>645</v>
       </c>
       <c r="D146" t="n">
         <v>5000</v>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -5848,31 +5848,31 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>An accident at work left Din injured and jobless</t>
+          <t>Supporting Ashliza: Because sometimes Mummy Has to Be Daddy Too</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>3210</v>
+        <v>1740</v>
       </c>
       <c r="D147" t="n">
-        <v>3210</v>
+        <v>1740</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/islam-din/</t>
+          <t>https://rayofhope.sg/campaign/supporting-ashliza/</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -5885,26 +5885,26 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A Fresh Start for Mdm Sue: Finding Strength Amid Uncertainty</t>
+          <t>A New Beginning: Help Varsha Pursue Her Dream of Becoming a Phlebotomist</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1550</v>
+        <v>1700</v>
       </c>
       <c r="D148" t="n">
-        <v>1500</v>
+        <v>1670</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Families In Need, Education (Adult)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-fresh-start-for-mdm-sue/</t>
+          <t>https://rayofhope.sg/campaign/a-new-beginning-for-varsha/</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>103.33</v>
+        <v>101.8</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -5922,35 +5922,35 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Empowering Women Giving Circle</t>
+          <t>The fire has robbed them, but not of their spirits</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>70341.49000000001</v>
+        <v>51264</v>
       </c>
       <c r="D149" t="n">
-        <v>100000</v>
+        <v>51143.36</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empowering Women Giving Circle</t>
+          <t>0 Families In Need, Personal Crisis</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/empowering-women-giving-circle/</t>
+          <t>https://rayofhope.sg/campaign/the-fire-has-robbed-them-but-not-of-their-spirits/</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4-giving-circles</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>70.34</v>
+        <v>100.24</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -5959,35 +5959,35 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Arman needs hope in this time of uncertainty</t>
+          <t>A Fresh Start for Misha After a Long Year of Caregiving</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1800</v>
+        <v>738</v>
       </c>
       <c r="D150" t="n">
-        <v>1800</v>
+        <v>2769</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hossainmdarman/</t>
+          <t>https://rayofhope.sg/campaign/a-fresh-start-for-misha/</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>100</v>
+        <v>26.65</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -5996,35 +5996,35 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The fire has robbed them, but not of their spirits</t>
+          <t>Education Giving Circle</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C151" t="n">
-        <v>51264</v>
+        <v>56145.6</v>
       </c>
       <c r="D151" t="n">
-        <v>51143.36</v>
+        <v>100000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0 Families In Need, Personal Crisis</t>
+          <t>Education Giving Circle</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/the-fire-has-robbed-them-but-not-of-their-spirits/</t>
+          <t>https://rayofhope.sg/campaign/education-giving-circle/</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>4-giving-circles</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>100.24</v>
+        <v>56.15</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -6033,35 +6033,35 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>From Struggle to Strength: Help Hatijah’s Family Of Five Rise Above Hard Times</t>
+          <t>Injured and jobless after an accident, Dulal needs your help with his living expenses.</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1204</v>
+        <v>4792</v>
       </c>
       <c r="D152" t="n">
-        <v>1950</v>
+        <v>4770</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hatijah/</t>
+          <t>https://rayofhope.sg/campaign/dulal/</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>61.74</v>
+        <v>100.46</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -6070,17 +6070,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Through the eyes of a son: A Journey of Care</t>
+          <t>A Mother’s Fight: Giving Zixuan Time to Stand on Her Own</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C153" t="n">
-        <v>3600</v>
+        <v>750</v>
       </c>
       <c r="D153" t="n">
-        <v>3600</v>
+        <v>3150</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/haizal/</t>
+          <t>https://rayofhope.sg/campaign/zixuan2/</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>100</v>
+        <v>23.81</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -6107,35 +6107,35 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A Father’s Promise: Help Mohinder Begin Afresh</t>
+          <t>“I must recover to be able to work and support my family.”</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>2697</v>
+        <v>1970</v>
       </c>
       <c r="D154" t="n">
-        <v>2696.9</v>
+        <v>1920</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0 Mental Health, Employment Needs</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mohinder2/</t>
+          <t>https://rayofhope.sg/campaign/shahidul/</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>mental-health</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>100</v>
+        <v>102.6</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -6144,35 +6144,35 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>“With a prosthetic, it would open up so much opportunities for me,”</t>
+          <t>A Fresh Start for Mdm Sue: Finding Strength Amid Uncertainty</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>27000</v>
+        <v>1550</v>
       </c>
       <c r="D155" t="n">
-        <v>27000</v>
+        <v>1500</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0 Disability, Medical Equipment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/aidil/</t>
+          <t>https://rayofhope.sg/campaign/a-fresh-start-for-mdm-sue/</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>disability</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>100</v>
+        <v>103.33</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -6181,35 +6181,35 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Help Lingam obtain his Class 4 License fees so that he can support his family with better job prospects</t>
+          <t>A Father’s Fight for Stability</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C156" t="n">
-        <v>2937.97</v>
+        <v>1800</v>
       </c>
       <c r="D156" t="n">
-        <v>2936.92</v>
+        <v>1800</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Employment Needs</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/lingam/</t>
+          <t>https://rayofhope.sg/campaign/santoshs-fight-for-stability/</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ex-offenders</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>100.04</v>
+        <v>100</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -6218,35 +6218,35 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A New Beginning: Help Varsha Pursue Her Dream of Becoming a Phlebotomist</t>
+          <t>Help the injured Sajib with his living expenses while he awaits full MC wages.</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1700</v>
+        <v>3177</v>
       </c>
       <c r="D157" t="n">
-        <v>1670</v>
+        <v>3360</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0 Families In Need, Education (Adult)</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-new-beginning-for-varsha/</t>
+          <t>https://rayofhope.sg/campaign/sajib/</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>101.8</v>
+        <v>94.55</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -6255,35 +6255,35 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A Fresh Start for Misha After a Long Year of Caregiving</t>
+          <t>Help Lingam obtain his Class 4 License fees so that he can support his family with better job prospects</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>738</v>
+        <v>2937.97</v>
       </c>
       <c r="D158" t="n">
-        <v>2769</v>
+        <v>2936.92</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Ex-Offenders, Employment Needs</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/a-fresh-start-for-misha/</t>
+          <t>https://rayofhope.sg/campaign/lingam/</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>ex-offenders</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>26.65</v>
+        <v>100.04</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -6292,35 +6292,35 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Single Parent Giving Circle</t>
+          <t>Support Mdm Putri: A Mother’s Journey of Strength and Resilience</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>28223.9</v>
+        <v>3095</v>
       </c>
       <c r="D159" t="n">
-        <v>100000</v>
+        <v>3093.26</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Single Parent Giving Circle</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/single-parents-giving-circle/</t>
+          <t>https://rayofhope.sg/campaign/mdm-putris-journey-of-strength-and-resilience/</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4-giving-circles</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>28.22</v>
+        <v>100.06</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -6329,35 +6329,35 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Support Mdm Lia with her living expenses and daughter’s allowances for 4 months while she seeks employment.</t>
+          <t>Mr Li lives in distress with no means to support his family after a workplace accident.</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1660</v>
+        <v>3000</v>
       </c>
       <c r="D160" t="n">
-        <v>1640</v>
+        <v>3000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-lia/</t>
+          <t>https://rayofhope.sg/campaign/li-lianshi/</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>101.22</v>
+        <v>100</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -6366,35 +6366,35 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Nurhakim’s life was derailed by a tumor. Support his efforts to get back on track.</t>
+          <t>“I have to be healthy to be there for my kids.”</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>25920</v>
+        <v>6663</v>
       </c>
       <c r="D161" t="n">
-        <v>25920</v>
+        <v>18000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0 Disability, Employment Needs</t>
+          <t>0 Chronic Illness, Medical Treatment</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/nurhakim-a-life-on-hold/</t>
+          <t>https://rayofhope.sg/campaign/mdm-suria-2/</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>disability</t>
+          <t>chronic-illness</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>100</v>
+        <v>37.02</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -6403,35 +6403,35 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Support 12 residents in their reintegration as they strive for a better future</t>
+          <t>Migrant Workers Giving Circle</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C162" t="n">
-        <v>4805</v>
+        <v>49278.9</v>
       </c>
       <c r="D162" t="n">
-        <v>21600</v>
+        <v>100000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Employment Needs</t>
+          <t>Migrant Workers Giving Circle</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/new-start-9/</t>
+          <t>https://rayofhope.sg/campaign/migrantworkersgivingcircle/</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>ex-offenders</t>
+          <t>4-giving-circles</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>22.25</v>
+        <v>49.28</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -6440,35 +6440,35 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Migrant Workers Giving Circle</t>
+          <t>Mofijul’s Struggle: Left Injured and Without Support</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="C163" t="n">
-        <v>49278.9</v>
+        <v>265</v>
       </c>
       <c r="D163" t="n">
-        <v>100000</v>
+        <v>1500</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Migrant Workers Giving Circle</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/migrantworkersgivingcircle/</t>
+          <t>https://rayofhope.sg/campaign/mofijul/</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4-giving-circles</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>49.28</v>
+        <v>17.67</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -6477,17 +6477,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Injured and jobless after an accident, Dulal needs your help with his living expenses.</t>
+          <t>An accident at work left Din injured and jobless</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>4792</v>
+        <v>3210</v>
       </c>
       <c r="D164" t="n">
-        <v>4770</v>
+        <v>3210</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/dulal/</t>
+          <t>https://rayofhope.sg/campaign/islam-din/</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>100.46</v>
+        <v>100</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6514,35 +6514,35 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Project HomeLift: Transforming Rental Flats into A Home of Hope</t>
+          <t>A Father’s Promise: Help Mohinder Begin Afresh</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C165" t="n">
-        <v>20387.5</v>
+        <v>2697</v>
       </c>
       <c r="D165" t="n">
-        <v>50000</v>
+        <v>2696.9</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Environment</t>
+          <t>0 Mental Health, Employment Needs</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/project-homelift/</t>
+          <t>https://rayofhope.sg/campaign/mohinder2/</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>mental-health</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>40.78</v>
+        <v>100</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -6551,35 +6551,35 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>I struggle with Schizophrenia, but my bond with my mom remains.</t>
+          <t>Help Iskandar Secure a Better Future for His Family</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C166" t="n">
-        <v>1032</v>
+        <v>430</v>
       </c>
       <c r="D166" t="n">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0 Mental Health, Living Expenses</t>
+          <t>0 Families In Need, Employment Needs</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/heliyuan2/</t>
+          <t>https://rayofhope.sg/campaign/iskandar/</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>mental-health</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>103.2</v>
+        <v>11.94</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -6588,35 +6588,35 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mr Li lives in distress with no means to support his family after a workplace accident.</t>
+          <t>A Mother Left to Carry the Weight Alone</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>3000</v>
+        <v>3629.17</v>
       </c>
       <c r="D167" t="n">
-        <v>3000</v>
+        <v>3545</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/li-lianshi/</t>
+          <t>https://rayofhope.sg/campaign/huang_zixuan/</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>100</v>
+        <v>102.37</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -6625,35 +6625,35 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>“I Never Asked for MC. And Now I No Job, No Money”: Help This Migrant Brother Recover from an Unfair Mishap</t>
+          <t>“I woke up to my home in flames on New Years Eve.”</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>838.1799999999999</v>
+        <v>2594</v>
       </c>
       <c r="D168" t="n">
-        <v>1620</v>
+        <v>8311.709999999999</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Personal Crisis</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/brotherbiswas/</t>
+          <t>https://rayofhope.sg/campaign/mrramesh/</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>51.74</v>
+        <v>31.21</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -6662,35 +6662,35 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Rebuilding Hope for the Paneer Family</t>
+          <t>Arman needs hope in this time of uncertainty</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>7333</v>
+        <v>1800</v>
       </c>
       <c r="D169" t="n">
-        <v>49187.5</v>
+        <v>1800</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0 Families In Need, Personal Crisis</t>
+          <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/rebuilding-hope-for-the-paneer-family/</t>
+          <t>https://rayofhope.sg/campaign/hossainmdarman/</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>migrant-workers</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>14.91</v>
+        <v>100</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -6699,35 +6699,35 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Secure a Home, Restoring Hope: Help Prevent Housing Insecurity for 63 year old Sarah</t>
+          <t>Help a single-mother build a better future for her children</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>2393</v>
+        <v>3750</v>
       </c>
       <c r="D170" t="n">
-        <v>5633</v>
+        <v>3750</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Living Environment</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/restoring-hope-for-63-year-old-sarah/</t>
+          <t>https://rayofhope.sg/campaign/hema/</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>chronic-illness</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>42.48</v>
+        <v>100</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -6736,26 +6736,26 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>From Struggle to Strength: Supporting Rita</t>
+          <t>Help Wichuta Bring Jun An Home to See His Grandmother</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C171" t="n">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>4900</v>
+        <v>2000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Families In Need, Relationship Building</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/rita/</t>
+          <t>https://rayofhope.sg/campaign/help-wichuta-bring-jun-an-home-to-see-his-grandmother/</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>63.27</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -6773,17 +6773,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Beyond the Sentence: Supporting Second Chances</t>
+          <t>Help 6 residents on their journey as they reintegrate back into society.</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>4333.82</v>
+        <v>4109.98</v>
       </c>
       <c r="D172" t="n">
-        <v>13470</v>
+        <v>11100</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/new-start-8/</t>
+          <t>https://rayofhope.sg/campaign/new-start-6/</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>32.17</v>
+        <v>37.03</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -6810,35 +6810,35 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Support Mdm Putri: A Mother’s Journey of Strength and Resilience</t>
+          <t>From Conviction to Transformation: Helping Ex-Offenders Rebuild</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>3095</v>
+        <v>9870</v>
       </c>
       <c r="D173" t="n">
-        <v>3093.26</v>
+        <v>9870</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0 Families In Need, Living Expenses</t>
+          <t>0 Ex-Offenders, Employment Needs</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-putris-journey-of-strength-and-resilience/</t>
+          <t>https://rayofhope.sg/campaign/new-start-7/</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>families-in-need</t>
+          <t>ex-offenders</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>100.06</v>
+        <v>100</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -6847,26 +6847,26 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A Father’s Commitment: Help Roy Stay Connected to His Family</t>
+          <t>Beyond the Sentence: Supporting Second Chances</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>2630</v>
+        <v>4333.82</v>
       </c>
       <c r="D174" t="n">
-        <v>5688</v>
+        <v>13470</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Relationship Building</t>
+          <t>0 Ex-Offenders, Employment Needs</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/roy-a-fathers-commitment/</t>
+          <t>https://rayofhope.sg/campaign/new-start-8/</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>46.24</v>
+        <v>32.17</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -6884,17 +6884,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>From Conviction to Transformation: Helping Ex-Offenders Rebuild</t>
+          <t>Support 12 residents in their reintegration as they strive for a better future</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>9870</v>
+        <v>4805</v>
       </c>
       <c r="D175" t="n">
-        <v>9870</v>
+        <v>21600</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/new-start-7/</t>
+          <t>https://rayofhope.sg/campaign/new-start-9/</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>100</v>
+        <v>22.25</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -6921,35 +6921,35 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Help 6 residents on their journey as they reintegrate back into society.</t>
+          <t>Nurhakim’s life was derailed by a tumor. Support his efforts to get back on track.</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>4109.98</v>
+        <v>25920</v>
       </c>
       <c r="D176" t="n">
-        <v>11100</v>
+        <v>25920</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0 Ex-Offenders, Employment Needs</t>
+          <t>0 Disability, Employment Needs</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/new-start-6/</t>
+          <t>https://rayofhope.sg/campaign/nurhakim-a-life-on-hold/</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>ex-offenders</t>
+          <t>disability</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>37.03</v>
+        <v>100</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -6958,35 +6958,35 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sabbir’s Story: Struggling Through Injury, Far from Home</t>
+          <t>I struggle with Schizophrenia, but my bond with my mom remains.</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>3000</v>
+        <v>1032</v>
       </c>
       <c r="D177" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Mental Health, Living Expenses</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/sabbir/</t>
+          <t>https://rayofhope.sg/campaign/heliyuan2/</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>mental-health</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>100</v>
+        <v>103.2</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -6995,26 +6995,26 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>“I woke up to my home in flames on New Years Eve.”</t>
+          <t>Project HomeLift: Transforming Rental Flats into A Home of Hope</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C178" t="n">
-        <v>2594</v>
+        <v>22237.5</v>
       </c>
       <c r="D178" t="n">
-        <v>8311.709999999999</v>
+        <v>50000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>0 Families In Need, Personal Crisis</t>
+          <t>0 Families In Need, Living Environment</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mrramesh/</t>
+          <t>https://rayofhope.sg/campaign/project-homelift/</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>31.21</v>
+        <v>44.47</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -7032,35 +7032,35 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A Father’s Fight for Stability</t>
+          <t>From Struggle to Strength: Help Hatijah’s Family Of Five Rise Above Hard Times</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>535</v>
+        <v>1950</v>
       </c>
       <c r="D179" t="n">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Living Expenses</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/santoshs-fight-for-stability/</t>
+          <t>https://rayofhope.sg/campaign/hatijah/</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>29.72</v>
+        <v>100</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -7069,17 +7069,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Help a single-mother build a better future for her children</t>
+          <t>Through the eyes of a son: A Journey of Care</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>3750</v>
+        <v>3600</v>
       </c>
       <c r="D180" t="n">
-        <v>3750</v>
+        <v>3600</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/hema/</t>
+          <t>https://rayofhope.sg/campaign/haizal/</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7106,35 +7106,35 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>“I must recover to be able to work and support my family.”</t>
+          <t>Rebuilding Hope for the Paneer Family</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1970</v>
+        <v>7333</v>
       </c>
       <c r="D181" t="n">
-        <v>1920</v>
+        <v>49187.5</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0 Migrant Workers, Living Expenses</t>
+          <t>0 Families In Need, Personal Crisis</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/shahidul/</t>
+          <t>https://rayofhope.sg/campaign/rebuilding-hope-for-the-paneer-family/</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>migrant-workers</t>
+          <t>families-in-need</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>102.6</v>
+        <v>14.91</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -7143,26 +7143,26 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>“I have to be healthy to be there for my kids.”</t>
+          <t>Secure a Home, Restoring Hope: Help Prevent Housing Insecurity for 63 year old Sarah</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C182" t="n">
-        <v>6663</v>
+        <v>2393</v>
       </c>
       <c r="D182" t="n">
-        <v>18000</v>
+        <v>5633</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0 Chronic Illness, Medical Treatment</t>
+          <t>0 Chronic Illness, Living Environment</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://rayofhope.sg/campaign/mdm-suria-2/</t>
+          <t>https://rayofhope.sg/campaign/restoring-hope-for-63-year-old-sarah/</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>37.02</v>
+        <v>42.48</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -7180,37 +7180,185 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Help the injured Sajib with his living expenses while he awaits full MC wages.</t>
+          <t>From Struggle to Strength: Supporting Rita</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>3177</v>
+        <v>3100</v>
       </c>
       <c r="D183" t="n">
-        <v>3360</v>
+        <v>4900</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
+          <t>0 Families In Need, Living Expenses</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://rayofhope.sg/campaign/rita/</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>families-in-need</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>63.27</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>A Father’s Commitment: Help Roy Stay Connected to His Family</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>267</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2630</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5688</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0 Ex-Offenders, Relationship Building</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://rayofhope.sg/campaign/roy-a-fathers-commitment/</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>ex-offenders</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>46.24</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>“With a prosthetic, it would open up so much opportunities for me,”</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>27000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0 Disability, Medical Equipment</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://rayofhope.sg/campaign/aidil/</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>100</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Sabbir’s Story: Struggling Through Injury, Far from Home</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>13</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>0 Migrant Workers, Living Expenses</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>https://rayofhope.sg/campaign/sajib/</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://rayofhope.sg/campaign/sabbir/</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>migrant-workers</t>
         </is>
       </c>
-      <c r="H183" t="n">
-        <v>94.55</v>
-      </c>
-      <c r="I183" t="n">
+      <c r="H186" t="n">
+        <v>100</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>“I Never Asked for MC. And Now I No Job, No Money”: Help This Migrant Brother Recover from an Unfair Mishap</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>888.1799999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0 Migrant Workers, Living Expenses</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://rayofhope.sg/campaign/brotherbiswas/</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>migrant-workers</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="I187" t="n">
         <v>1</v>
       </c>
     </row>
